--- a/Cron/ncaamb/all_games_20251202.xlsx
+++ b/Cron/ncaamb/all_games_20251202.xlsx
@@ -1589,7 +1589,7 @@
         <v>0.7439</v>
       </c>
       <c r="G29" s="2">
-        <v>230</v>
+        <v>229.9999999999999</v>
       </c>
       <c r="H29" s="2">
         <v>-284.7659858359848</v>
@@ -1719,7 +1719,7 @@
         <v>0.0493</v>
       </c>
       <c r="G34" s="2">
-        <v>-2999.99999999999</v>
+        <v>-3000.00000000001</v>
       </c>
       <c r="H34" s="2">
         <v>1250</v>

--- a/Cron/ncaamb/all_games_20251202.xlsx
+++ b/Cron/ncaamb/all_games_20251202.xlsx
@@ -1589,7 +1589,7 @@
         <v>0.7439</v>
       </c>
       <c r="G29" s="2">
-        <v>229.9999999999999</v>
+        <v>230</v>
       </c>
       <c r="H29" s="2">
         <v>-284.7659858359848</v>
@@ -1719,7 +1719,7 @@
         <v>0.0493</v>
       </c>
       <c r="G34" s="2">
-        <v>-3000.00000000001</v>
+        <v>-2999.99999999999</v>
       </c>
       <c r="H34" s="2">
         <v>1250</v>
